--- a/static/data/final.xlsx
+++ b/static/data/final.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>restaurants</t>
+  </si>
+  <si>
+    <t>scores</t>
   </si>
   <si>
     <t>R_1</t>
@@ -536,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,1368 +573,1656 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>43.7806295285617</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>-79.4565280957392</v>
+        <v>43.78062953</v>
       </c>
       <c r="E2">
+        <v>-79.4565281</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>533</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>4.8</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0.2905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>43.76198637104631</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>-79.45290366553895</v>
+        <v>43.76198637</v>
       </c>
       <c r="E3">
+        <v>-79.45290367</v>
+      </c>
+      <c r="F3">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>786</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.6</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>43.76217084230767</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>-79.53897950453243</v>
+        <v>43.76217084</v>
       </c>
       <c r="E4">
+        <v>-79.53897950000001</v>
+      </c>
+      <c r="F4">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>650</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>43.7441162226832</v>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>-79.5347608327793</v>
+        <v>43.74411622</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>-79.53476083</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>916</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>43.75822824840924</v>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>-79.55780056204763</v>
+        <v>43.75822825</v>
       </c>
       <c r="E6">
+        <v>-79.55780056</v>
+      </c>
+      <c r="F6">
         <v>96</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>766</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8.800000000000001</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.5003333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>43.73139710343244</v>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>-79.55017813615275</v>
+        <v>43.7313971</v>
       </c>
       <c r="E7">
+        <v>-79.55017814</v>
+      </c>
+      <c r="F7">
         <v>89</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1027</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8.6</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.6281666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>43.77250513398489</v>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>-79.56001192020949</v>
+        <v>43.77250513</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-79.56001191999999</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>592</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>43.78393572971</v>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>-79.5089227412564</v>
+        <v>43.78393573</v>
       </c>
       <c r="E9">
+        <v>-79.50892274</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>554</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>43.72420178925842</v>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>-79.53001178183429</v>
+        <v>43.72420179</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-79.53001178</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>968</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>43.72770544726892</v>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>-79.51701029968642</v>
+        <v>43.72770545</v>
       </c>
       <c r="E11">
+        <v>-79.5170103</v>
+      </c>
+      <c r="F11">
         <v>94</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1116</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7.5</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>43.73128994013453</v>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>-79.49728489175057</v>
+        <v>43.73128994</v>
       </c>
       <c r="E12">
+        <v>-79.49728489</v>
+      </c>
+      <c r="F12">
         <v>69</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>798</v>
       </c>
-      <c r="G12">
-        <v>7.199999999999999</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.4950000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>43.73843064813454</v>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>-79.46969607131452</v>
+        <v>43.73843065</v>
       </c>
       <c r="E13">
+        <v>-79.46969607</v>
+      </c>
+      <c r="F13">
         <v>39</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1037</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.5718333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>43.74403034652163</v>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>-79.44609393806672</v>
+        <v>43.74403035</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-79.44609394</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>902</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>43.77796652499485</v>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>-79.57807073673966</v>
+        <v>43.77796652</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-79.57807074</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>756</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>43.78236204629918</v>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>-79.56019738228606</v>
+        <v>43.78236205</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-79.56019738000001</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>692</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>43.78790205671206</v>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>-79.53553278297738</v>
+        <v>43.78790206</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>-79.53553278</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>602</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>43.79343003427835</v>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>-79.51093347997185</v>
+        <v>43.79343003</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-79.51093348000001</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>574</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>3.7</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.3055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>43.80196157229484</v>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>-79.48874865606729</v>
+        <v>43.80196157</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-79.48874866</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>629</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.3145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>43.79904607817605</v>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>-79.46008874602184</v>
+        <v>43.79904608</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-79.46008875</v>
       </c>
       <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>574</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>43.77440983562757</v>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>-79.50399488171534</v>
+        <v>43.77440984</v>
       </c>
       <c r="E21">
+        <v>-79.50399487999999</v>
+      </c>
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>298</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>17.3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.2888333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>43.76801511437814</v>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>-79.49867557643432</v>
+        <v>43.76801511</v>
       </c>
       <c r="E22">
+        <v>-79.49867558</v>
+      </c>
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>396</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>43.76427850365761</v>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>-79.49587024355642</v>
+        <v>43.7642785</v>
       </c>
       <c r="E23">
+        <v>-79.49587024</v>
+      </c>
+      <c r="F23">
         <v>13</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>344</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3.6</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>43.77081772439058</v>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>-79.5168511165798</v>
+        <v>43.77081772</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-79.51685112</v>
       </c>
       <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>365</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>43.76280172563889</v>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>-79.51121157528485</v>
+        <v>43.76280173</v>
       </c>
       <c r="E25">
+        <v>-79.51121157999999</v>
+      </c>
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>545</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.2725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>43.77805391052176</v>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>-79.49018715371835</v>
+        <v>43.77805391</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>-79.49018715</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>124</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>43.77886113496753</v>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>-79.47243049455111</v>
+        <v>43.77886113</v>
       </c>
       <c r="E27">
+        <v>-79.47243048999999</v>
+      </c>
+      <c r="F27">
         <v>63</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>442</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>11.7</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>30.6</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>43.76845907694484</v>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>-79.4803956619303</v>
+        <v>43.76845908</v>
       </c>
       <c r="E28">
+        <v>-79.48039566</v>
+      </c>
+      <c r="F28">
         <v>20</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>488</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4.7</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.9</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.3311666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>43.77557250173755</v>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>-79.48317332908769</v>
+        <v>43.7755725</v>
       </c>
       <c r="E29">
+        <v>-79.48317333</v>
+      </c>
+      <c r="F29">
         <v>41</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>232</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3.9</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>5</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>43.77068777532969</v>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>-79.52814373858163</v>
+        <v>43.77068778</v>
       </c>
       <c r="E30">
+        <v>-79.52814374</v>
+      </c>
+      <c r="F30">
         <v>61</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>514</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.6</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>43.76036182886985</v>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>-79.52809191962098</v>
+        <v>43.76036183</v>
       </c>
       <c r="E31">
+        <v>-79.52809191999999</v>
+      </c>
+      <c r="F31">
         <v>50</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>537</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3.7</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.3178333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>43.76371576863846</v>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>-79.52263193295389</v>
+        <v>43.76371577</v>
       </c>
       <c r="E32">
+        <v>-79.52263193</v>
+      </c>
+      <c r="F32">
         <v>79</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>526</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.9</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4.1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.3355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>43.77934687168695</v>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>-79.52921751447106</v>
+        <v>43.77934687</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>-79.52921751</v>
       </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>452</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>43.77671560992012</v>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>-79.54073660555969</v>
+        <v>43.77671561</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-79.54073661</v>
       </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>699</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.3495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>43.75176179822606</v>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>-79.52355917417545</v>
+        <v>43.7517618</v>
       </c>
       <c r="E35">
+        <v>-79.52355917</v>
+      </c>
+      <c r="F35">
         <v>167</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>734</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>15.9</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>43.74263217464981</v>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
       </c>
       <c r="D36">
-        <v>-79.52145832292484</v>
+        <v>43.74263217</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>-79.52145831999999</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>843</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.4215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>43.78995831315527</v>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>-79.48550268831508</v>
+        <v>43.78995831</v>
       </c>
       <c r="E37">
+        <v>-79.48550269</v>
+      </c>
+      <c r="F37">
         <v>31</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>576</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>4.8</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>5</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>43.79564889434128</v>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>-79.47675280590276</v>
+        <v>43.79564889</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>-79.47675280999999</v>
       </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>658</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>43.80251700864721</v>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>-79.47867418314775</v>
+        <v>43.80251701</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>-79.47867418</v>
       </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>585</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.2925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>43.80992121010311</v>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>-79.4773578643799</v>
+        <v>43.80992121</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-79.47735786</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>686</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>43.75748209714874</v>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>-79.48360018593755</v>
+        <v>43.7574821</v>
       </c>
       <c r="E41">
+        <v>-79.48360019</v>
+      </c>
+      <c r="F41">
         <v>58</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>456</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>11.9</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>12.7</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0.4501666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>43.76010110177324</v>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
       </c>
       <c r="D42">
-        <v>-79.4704673251082</v>
+        <v>43.7601011</v>
       </c>
       <c r="E42">
+        <v>-79.47046733000001</v>
+      </c>
+      <c r="F42">
         <v>67</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>607</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>8.699999999999999</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>31.9</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>43.75725231896784</v>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>-79.49451201054303</v>
+        <v>43.75725232</v>
       </c>
       <c r="E43">
+        <v>-79.49451200999999</v>
+      </c>
+      <c r="F43">
         <v>15</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>466</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>43.74876915279969</v>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
       </c>
       <c r="D44">
-        <v>-79.49083385941454</v>
+        <v>43.74876915</v>
       </c>
       <c r="E44">
+        <v>-79.49083386</v>
+      </c>
+      <c r="F44">
         <v>17</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>543</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.7</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.3208333333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>43.74657491628722</v>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>-79.49859170740299</v>
+        <v>43.74657492</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-79.49859171</v>
       </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>788</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>43.7546232989145</v>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>-79.5059663627555</v>
+        <v>43.75462329999999</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-79.50596636</v>
       </c>
       <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>519</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.2595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>43.75229055796284</v>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>-79.51484800889232</v>
+        <v>43.75229056</v>
       </c>
       <c r="E47">
+        <v>-79.51484800999999</v>
+      </c>
+      <c r="F47">
         <v>97</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>681</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>12.2</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4.3</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.5246666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>43.74402139472096</v>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
       </c>
       <c r="D48">
-        <v>-79.5090895433234</v>
+        <v>43.74402139</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>-79.50908954000001</v>
       </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>757</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.3785</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/final.xlsx
+++ b/static/data/final.xlsx
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>533</v>
+        <v>833</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2905</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,7 +635,7 @@
         <v>40</v>
       </c>
       <c r="G3">
-        <v>786</v>
+        <v>1086</v>
       </c>
       <c r="H3">
         <v>3.6</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.441</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +670,7 @@
         <v>35</v>
       </c>
       <c r="G4">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>916</v>
+        <v>1216</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.458</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,7 +740,7 @@
         <v>96</v>
       </c>
       <c r="G6">
-        <v>766</v>
+        <v>1066</v>
       </c>
       <c r="H6">
         <v>8.800000000000001</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5003333333333333</v>
+        <v>0.3843333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,7 +775,7 @@
         <v>89</v>
       </c>
       <c r="G7">
-        <v>1027</v>
+        <v>1327</v>
       </c>
       <c r="H7">
         <v>8.6</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6281666666666667</v>
+        <v>0.2511666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>592</v>
+        <v>892</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.296</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>554</v>
+        <v>854</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.277</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>968</v>
+        <v>1268</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.484</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,7 +915,7 @@
         <v>94</v>
       </c>
       <c r="G11">
-        <v>1116</v>
+        <v>1416</v>
       </c>
       <c r="H11">
         <v>7.5</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.658</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,7 +950,7 @@
         <v>69</v>
       </c>
       <c r="G12">
-        <v>798</v>
+        <v>1098</v>
       </c>
       <c r="H12">
         <v>7.2</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4950000000000001</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,7 +985,7 @@
         <v>39</v>
       </c>
       <c r="G13">
-        <v>1037</v>
+        <v>1337</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5718333333333333</v>
+        <v>0.1848333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>902</v>
+        <v>1202</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.451</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>756</v>
+        <v>1056</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.378</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>692</v>
+        <v>992</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.346</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>602</v>
+        <v>902</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.321</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>574</v>
+        <v>874</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3055</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>629</v>
+        <v>929</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3145</v>
+        <v>0.3355</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>574</v>
+        <v>874</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.287</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2888333333333333</v>
+        <v>0.7908333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.198</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.22</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>365</v>
+        <v>665</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1825</v>
+        <v>0.4675</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="G25">
-        <v>545</v>
+        <v>845</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2725</v>
+        <v>0.3775</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.062</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,7 +1475,7 @@
         <v>63</v>
       </c>
       <c r="G27">
-        <v>442</v>
+        <v>742</v>
       </c>
       <c r="H27">
         <v>11.7</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.53</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,7 +1510,7 @@
         <v>20</v>
       </c>
       <c r="G28">
-        <v>488</v>
+        <v>788</v>
       </c>
       <c r="H28">
         <v>4.7</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.3311666666666667</v>
+        <v>0.4931666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0.193</v>
+        <v>0.7610000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,7 +1580,7 @@
         <v>61</v>
       </c>
       <c r="G30">
-        <v>514</v>
+        <v>814</v>
       </c>
       <c r="H30">
         <v>3.6</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0.305</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,7 +1615,7 @@
         <v>50</v>
       </c>
       <c r="G31">
-        <v>537</v>
+        <v>837</v>
       </c>
       <c r="H31">
         <v>3.7</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.3178333333333334</v>
+        <v>0.4308333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,7 +1650,7 @@
         <v>79</v>
       </c>
       <c r="G32">
-        <v>526</v>
+        <v>826</v>
       </c>
       <c r="H32">
         <v>3.9</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.3355</v>
+        <v>0.4595</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>452</v>
+        <v>752</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0.226</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>699</v>
+        <v>999</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.3495</v>
+        <v>0.3005</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,7 +1755,7 @@
         <v>167</v>
       </c>
       <c r="G35">
-        <v>734</v>
+        <v>1034</v>
       </c>
       <c r="H35">
         <v>15.9</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0.579</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>843</v>
+        <v>1143</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.4215</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,7 +1825,7 @@
         <v>31</v>
       </c>
       <c r="G37">
-        <v>576</v>
+        <v>876</v>
       </c>
       <c r="H37">
         <v>4.8</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.377</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>658</v>
+        <v>958</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.329</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>585</v>
+        <v>885</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.2925</v>
+        <v>0.3575</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>686</v>
+        <v>986</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0.343</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,7 +1965,7 @@
         <v>58</v>
       </c>
       <c r="G41">
-        <v>456</v>
+        <v>756</v>
       </c>
       <c r="H41">
         <v>11.9</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.4501666666666667</v>
+        <v>0.6441666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,7 +2000,7 @@
         <v>67</v>
       </c>
       <c r="G42">
-        <v>607</v>
+        <v>907</v>
       </c>
       <c r="H42">
         <v>8.699999999999999</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.579</v>
+        <v>0.6219999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,7 +2035,7 @@
         <v>15</v>
       </c>
       <c r="G43">
-        <v>466</v>
+        <v>766</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0.233</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2070,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <v>543</v>
+        <v>843</v>
       </c>
       <c r="H44">
         <v>3.7</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0.3208333333333334</v>
+        <v>0.4278333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>788</v>
+        <v>1088</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0.394</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>519</v>
+        <v>819</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0.2595</v>
+        <v>0.3905</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2175,7 +2175,7 @@
         <v>97</v>
       </c>
       <c r="G47">
-        <v>681</v>
+        <v>981</v>
       </c>
       <c r="H47">
         <v>12.2</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.5246666666666666</v>
+        <v>0.4936666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>757</v>
+        <v>1057</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0.3785</v>
+        <v>0.2715</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/final.xlsx
+++ b/static/data/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -137,54 +137,6 @@
   </si>
   <si>
     <t>R_31</t>
-  </si>
-  <si>
-    <t>R_32</t>
-  </si>
-  <si>
-    <t>R_33</t>
-  </si>
-  <si>
-    <t>R_34</t>
-  </si>
-  <si>
-    <t>R_35</t>
-  </si>
-  <si>
-    <t>R_36</t>
-  </si>
-  <si>
-    <t>R_37</t>
-  </si>
-  <si>
-    <t>R_38</t>
-  </si>
-  <si>
-    <t>R_39</t>
-  </si>
-  <si>
-    <t>R_40</t>
-  </si>
-  <si>
-    <t>R_41</t>
-  </si>
-  <si>
-    <t>R_42</t>
-  </si>
-  <si>
-    <t>R_43</t>
-  </si>
-  <si>
-    <t>R_44</t>
-  </si>
-  <si>
-    <t>R_45</t>
-  </si>
-  <si>
-    <t>R_46</t>
-  </si>
-  <si>
-    <t>R_47</t>
   </si>
 </sst>
 </file>
@@ -542,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,28 +543,28 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>43.78062953</v>
+        <v>43.75893573</v>
       </c>
       <c r="E2">
-        <v>-79.4565281</v>
+        <v>-79.556164</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>833</v>
+        <v>1007</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I2">
-        <v>4.8</v>
+        <v>37.6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>144.6</v>
       </c>
       <c r="K2">
-        <v>0.4075</v>
+        <v>0.6826325999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -626,28 +578,28 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>43.76198637</v>
+        <v>43.74341237</v>
       </c>
       <c r="E3">
-        <v>-79.45290367</v>
+        <v>-79.54247721999999</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1086</v>
+        <v>1110</v>
       </c>
       <c r="H3">
-        <v>3.6</v>
+        <v>16.5</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K3">
-        <v>0.305</v>
+        <v>0.3119452333333333</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,19 +613,19 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>43.76217084</v>
+        <v>43.71551501</v>
       </c>
       <c r="E4">
-        <v>-79.53897950000001</v>
+        <v>-79.48071175</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>950</v>
+        <v>1252</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -682,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3916666666666667</v>
+        <v>0.193662</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -696,28 +648,28 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>43.74411622</v>
+        <v>43.76489132</v>
       </c>
       <c r="E5">
-        <v>-79.53476083</v>
+        <v>-79.52198709</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1216</v>
+        <v>805</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="K5">
-        <v>0.192</v>
+        <v>0.5623527833333334</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -731,28 +683,28 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>43.75822825</v>
+        <v>43.74569612</v>
       </c>
       <c r="E6">
-        <v>-79.55780056</v>
+        <v>-79.513424</v>
       </c>
       <c r="F6">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.3843333333333334</v>
+        <v>0.5335278833333333</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -766,28 +718,28 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>43.7313971</v>
+        <v>43.76486471</v>
       </c>
       <c r="E7">
-        <v>-79.55017814</v>
+        <v>-79.45603879999999</v>
       </c>
       <c r="F7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1327</v>
+        <v>1016</v>
       </c>
       <c r="H7">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2511666666666666</v>
+        <v>0.3492036</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -801,16 +753,16 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>43.77250513</v>
+        <v>43.77888954</v>
       </c>
       <c r="E8">
-        <v>-79.56001191999999</v>
+        <v>-79.45232742</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>892</v>
+        <v>1036</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -822,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.354</v>
+        <v>0.313866</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -836,28 +788,28 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>43.78393573</v>
+        <v>43.74191845</v>
       </c>
       <c r="E9">
-        <v>-79.50892274</v>
+        <v>-79.44618987</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>854</v>
+        <v>1222</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>18.6</v>
       </c>
       <c r="K9">
-        <v>0.373</v>
+        <v>0.2415895</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -871,28 +823,28 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>43.72420179</v>
+        <v>43.75421814</v>
       </c>
       <c r="E10">
-        <v>-79.53001178</v>
+        <v>-79.42454441</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1268</v>
+        <v>1410</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="K10">
-        <v>0.166</v>
+        <v>0.1480413333333334</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -906,28 +858,28 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>43.72770545</v>
+        <v>43.77114981</v>
       </c>
       <c r="E11">
-        <v>-79.5170103</v>
+        <v>-79.42778223000001</v>
       </c>
       <c r="F11">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1416</v>
+        <v>1205</v>
       </c>
       <c r="H11">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K11">
-        <v>0.192</v>
+        <v>0.2335866666666667</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -941,28 +893,28 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>43.73128994</v>
+        <v>43.78584767</v>
       </c>
       <c r="E12">
-        <v>-79.49728489</v>
+        <v>-79.43140643</v>
       </c>
       <c r="F12">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="H12">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K12">
-        <v>0.347</v>
+        <v>0.3028451666666667</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -976,19 +928,19 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>43.73843065</v>
+        <v>43.7915653</v>
       </c>
       <c r="E13">
-        <v>-79.46969607</v>
+        <v>-79.40591713000001</v>
       </c>
       <c r="F13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1337</v>
+        <v>1361</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -997,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1848333333333333</v>
+        <v>0.1404072</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1011,28 +963,28 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>43.74403035</v>
+        <v>43.77068153</v>
       </c>
       <c r="E14">
-        <v>-79.44609394</v>
+        <v>-79.40149173</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1202</v>
+        <v>1583</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>41.4</v>
       </c>
       <c r="K14">
-        <v>0.199</v>
+        <v>0.12782305</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1046,16 +998,16 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>43.77796652</v>
+        <v>43.79681874</v>
       </c>
       <c r="E15">
-        <v>-79.57807074</v>
+        <v>-79.38210293</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1056</v>
+        <v>1584</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1067,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.272</v>
+        <v>0.008904</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1081,28 +1033,28 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>43.78236205</v>
+        <v>43.77765648</v>
       </c>
       <c r="E16">
-        <v>-79.56019738000001</v>
+        <v>-79.55903091</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>992</v>
+        <v>715</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>51.7</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="K16">
-        <v>0.304</v>
+        <v>0.7695894833333333</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1116,28 +1068,28 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>43.78790206</v>
+        <v>43.78630673</v>
       </c>
       <c r="E17">
-        <v>-79.53553278</v>
+        <v>-79.51697586</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>902</v>
+        <v>829</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>15.4</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="K17">
-        <v>0.369</v>
+        <v>0.47245875</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1151,28 +1103,28 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>43.79343003</v>
+        <v>43.79369618</v>
       </c>
       <c r="E18">
-        <v>-79.51093348000001</v>
+        <v>-79.48466739</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I18">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3815</v>
+        <v>0.3928332</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1186,28 +1138,28 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>43.80196157</v>
+        <v>43.79911913</v>
       </c>
       <c r="E19">
-        <v>-79.48874866</v>
+        <v>-79.46009366</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>929</v>
+        <v>876</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3355</v>
+        <v>0.42775985</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1221,16 +1173,16 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>43.79904608</v>
+        <v>43.80441992</v>
       </c>
       <c r="E20">
-        <v>-79.46008875</v>
+        <v>-79.43510034000001</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>874</v>
+        <v>1141</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1242,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.363</v>
+        <v>0.2554335</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1256,28 +1208,28 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>43.77440984</v>
+        <v>43.77401039</v>
       </c>
       <c r="E21">
-        <v>-79.50399487999999</v>
+        <v>-79.50567577</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>25.9</v>
       </c>
       <c r="I21">
-        <v>17.3</v>
+        <v>26.6</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="K21">
-        <v>0.7908333333333334</v>
+        <v>0.84432575</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1291,28 +1243,28 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>43.76801511</v>
+        <v>43.76773796</v>
       </c>
       <c r="E22">
-        <v>-79.49867558</v>
+        <v>-79.49908778</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>24.4</v>
       </c>
       <c r="K22">
-        <v>0.602</v>
+        <v>0.7232406666666666</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1326,19 +1278,19 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>43.7642785</v>
+        <v>43.75612825</v>
       </c>
       <c r="E23">
-        <v>-79.49587024</v>
+        <v>-79.50345573</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>344</v>
+        <v>832</v>
       </c>
       <c r="H23">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1347,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.676</v>
+        <v>0.427392</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1361,28 +1313,28 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <v>43.77081772</v>
+        <v>43.74787636</v>
       </c>
       <c r="E24">
-        <v>-79.51685112</v>
+        <v>-79.4938923</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>665</v>
+        <v>918</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>0.4675</v>
+        <v>0.4020492</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1396,28 +1348,28 @@
         <v>33</v>
       </c>
       <c r="D25">
-        <v>43.76280173</v>
+        <v>43.75905684</v>
       </c>
       <c r="E25">
-        <v>-79.51121157999999</v>
+        <v>-79.49488848</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>845</v>
+        <v>739</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3775</v>
+        <v>0.5045977</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1431,28 +1383,28 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <v>43.77805391</v>
+        <v>43.77419409</v>
       </c>
       <c r="E26">
-        <v>-79.49018715</v>
+        <v>-79.48652025</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>40.1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="K26">
-        <v>0.738</v>
+        <v>0.9184925666666667</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1466,28 +1418,28 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>43.77886113</v>
+        <v>43.75739807</v>
       </c>
       <c r="E27">
-        <v>-79.47243048999999</v>
+        <v>-79.48358164</v>
       </c>
       <c r="F27">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="H27">
-        <v>11.7</v>
+        <v>7.9</v>
       </c>
       <c r="I27">
-        <v>30.6</v>
+        <v>17.4</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.738</v>
+        <v>0.51631365</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1501,28 +1453,28 @@
         <v>36</v>
       </c>
       <c r="D28">
-        <v>43.76845908</v>
+        <v>43.77638208</v>
       </c>
       <c r="E28">
-        <v>-79.48039566</v>
+        <v>-79.47458924</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>788</v>
+        <v>670</v>
       </c>
       <c r="H28">
-        <v>4.7</v>
+        <v>21.1</v>
       </c>
       <c r="I28">
-        <v>4.9</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K28">
-        <v>0.4931666666666667</v>
+        <v>0.70863685</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1536,28 +1488,28 @@
         <v>37</v>
       </c>
       <c r="D29">
-        <v>43.7755725</v>
+        <v>43.76008809</v>
       </c>
       <c r="E29">
-        <v>-79.48317333</v>
+        <v>-79.47023163999999</v>
       </c>
       <c r="F29">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>232</v>
+        <v>914</v>
       </c>
       <c r="H29">
-        <v>3.9</v>
+        <v>22</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>55.2</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="K29">
-        <v>0.7610000000000001</v>
+        <v>0.5416065333333334</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1571,28 +1523,28 @@
         <v>38</v>
       </c>
       <c r="D30">
-        <v>43.77068778</v>
+        <v>43.72659352</v>
       </c>
       <c r="E30">
-        <v>-79.52814374</v>
+        <v>-79.52003173</v>
       </c>
       <c r="F30">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>814</v>
+        <v>1219</v>
       </c>
       <c r="H30">
-        <v>3.6</v>
+        <v>28.1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="K30">
-        <v>0.441</v>
+        <v>0.2856284666666667</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1606,28 +1558,28 @@
         <v>39</v>
       </c>
       <c r="D31">
-        <v>43.76036183</v>
+        <v>43.72957754</v>
       </c>
       <c r="E31">
-        <v>-79.52809191999999</v>
+        <v>-79.49559345999999</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>837</v>
+        <v>1128</v>
       </c>
       <c r="H31">
-        <v>3.7</v>
+        <v>30</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K31">
-        <v>0.4308333333333333</v>
+        <v>0.3463156000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1641,588 +1593,28 @@
         <v>40</v>
       </c>
       <c r="D32">
-        <v>43.76371577</v>
+        <v>43.7336602</v>
       </c>
       <c r="E32">
-        <v>-79.52263193</v>
+        <v>-79.47397346</v>
       </c>
       <c r="F32">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>826</v>
+        <v>1179</v>
       </c>
       <c r="H32">
-        <v>3.9</v>
+        <v>64.8</v>
       </c>
       <c r="I32">
-        <v>4.1</v>
+        <v>17</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="K32">
-        <v>0.4595</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33">
-        <v>43.77934687</v>
-      </c>
-      <c r="E33">
-        <v>-79.52921751</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>752</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0.424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34">
-        <v>43.77671561</v>
-      </c>
-      <c r="E34">
-        <v>-79.54073661</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>999</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0.3005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35">
-        <v>43.7517618</v>
-      </c>
-      <c r="E35">
-        <v>-79.52355917</v>
-      </c>
-      <c r="F35">
-        <v>167</v>
-      </c>
-      <c r="G35">
-        <v>1034</v>
-      </c>
-      <c r="H35">
-        <v>15.9</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36">
-        <v>43.74263217</v>
-      </c>
-      <c r="E36">
-        <v>-79.52145831999999</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1143</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0.2285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37">
-        <v>43.78995831</v>
-      </c>
-      <c r="E37">
-        <v>-79.48550269</v>
-      </c>
-      <c r="F37">
-        <v>31</v>
-      </c>
-      <c r="G37">
-        <v>876</v>
-      </c>
-      <c r="H37">
-        <v>4.8</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0.451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38">
-        <v>43.79564889</v>
-      </c>
-      <c r="E38">
-        <v>-79.47675280999999</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>958</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0.321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39">
-        <v>43.80251701</v>
-      </c>
-      <c r="E39">
-        <v>-79.47867418</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>885</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0.3575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40">
-        <v>43.80992121</v>
-      </c>
-      <c r="E40">
-        <v>-79.47735786</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>986</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0.307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>43.7574821</v>
-      </c>
-      <c r="E41">
-        <v>-79.48360019</v>
-      </c>
-      <c r="F41">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>756</v>
-      </c>
-      <c r="H41">
-        <v>11.9</v>
-      </c>
-      <c r="I41">
-        <v>12.7</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0.6441666666666667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42">
-        <v>43.7601011</v>
-      </c>
-      <c r="E42">
-        <v>-79.47046733000001</v>
-      </c>
-      <c r="F42">
-        <v>67</v>
-      </c>
-      <c r="G42">
-        <v>907</v>
-      </c>
-      <c r="H42">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I42">
-        <v>31.9</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0.6219999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43">
-        <v>43.75725232</v>
-      </c>
-      <c r="E43">
-        <v>-79.49451200999999</v>
-      </c>
-      <c r="F43">
-        <v>15</v>
-      </c>
-      <c r="G43">
-        <v>766</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0.417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44">
-        <v>43.74876915</v>
-      </c>
-      <c r="E44">
-        <v>-79.49083386</v>
-      </c>
-      <c r="F44">
-        <v>17</v>
-      </c>
-      <c r="G44">
-        <v>843</v>
-      </c>
-      <c r="H44">
-        <v>3.7</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0.4278333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>43.74657492</v>
-      </c>
-      <c r="E45">
-        <v>-79.49859171</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>1088</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0.256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46">
-        <v>43.75462329999999</v>
-      </c>
-      <c r="E46">
-        <v>-79.50596636</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>819</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0.3905</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>45</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>43.75229056</v>
-      </c>
-      <c r="E47">
-        <v>-79.51484800999999</v>
-      </c>
-      <c r="F47">
-        <v>97</v>
-      </c>
-      <c r="G47">
-        <v>981</v>
-      </c>
-      <c r="H47">
-        <v>12.2</v>
-      </c>
-      <c r="I47">
-        <v>4.3</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0.4936666666666666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48">
-        <v>43.74402139</v>
-      </c>
-      <c r="E48">
-        <v>-79.50908954000001</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1057</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0.2715</v>
+        <v>0.4707518833333333</v>
       </c>
     </row>
   </sheetData>
